--- a/shopizer_TestCases_User Dashboard_AyanShaikh.xlsx
+++ b/shopizer_TestCases_User Dashboard_AyanShaikh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayan_shaikh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C6ECC5F2-6395-4256-9916-BE4BAD93B032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E3DD3B-91FA-4657-A8AD-7CE0C4FD007C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08A5AA-AD05-45E7-8D4F-067475745F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>Sc_id</t>
   </si>
@@ -203,19 +203,6 @@
     <t>New Window Related to editing Address information should be opened</t>
   </si>
   <si>
-    <t>SC_01_TC_05</t>
-  </si>
-  <si>
-    <t>To verify Add New Address   working or not</t>
-  </si>
-  <si>
-    <t>Click on the  Billing And Shipping link present on Dashboard
-Click on Add New Address link</t>
-  </si>
-  <si>
-    <t>New Window for adding   Address information should be opened</t>
-  </si>
-  <si>
     <t>SC_01_TC_06</t>
   </si>
   <si>
@@ -271,13 +258,28 @@
   </si>
   <si>
     <t>User should be able to Change current password.</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>User is not able to see the past/current orders</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>User is unable to place orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,19 +658,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="101.45">
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -702,10 +704,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="90">
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -722,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
       <c r="E6" s="2"/>
     </row>
@@ -734,311 +736,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" customWidth="1"/>
-    <col min="7" max="7" width="24" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.1796875" style="6"/>
+    <col min="2" max="2" width="18.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="72.599999999999994">
+    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="72.599999999999994">
+    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="G5" s="8"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="87">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87">
+    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="87">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="72.599999999999994">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="72.599999999999994">
-      <c r="A14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="19" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="144.94999999999999">
-      <c r="A17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="144.94999999999999">
-      <c r="A19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1048,18 +1060,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1227,13 +1239,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5E8A97-2FC6-4915-86D4-7EFA9EC0D8AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5E8A97-2FC6-4915-86D4-7EFA9EC0D8AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9465699d-b859-4ad6-ab8c-507a684d99d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>